--- a/Week6/dictionary/hd2021.new.xlsx
+++ b/Week6/dictionary/hd2021.new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10816"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidtorres/Code/NU/TIM7020/Week6/dictionary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0567702-223B-4F40-BB28-613D2C395CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18BC0651-9963-3C47-ACF5-B91A92EA02AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36760" yWindow="3020" windowWidth="32620" windowHeight="20980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1320" yWindow="2940" windowWidth="32620" windowHeight="20980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="varlist" sheetId="1" r:id="rId1"/>
@@ -508,36 +508,24 @@
     <t>Carnegie Classification 2021: Undergraduate Instructional Program</t>
   </si>
   <si>
-    <t>carnegie_classification_2021_undergrad_program</t>
-  </si>
-  <si>
     <t>C21IPGRD</t>
   </si>
   <si>
     <t>Carnegie Classification 2021: Graduate Instructional Program</t>
   </si>
   <si>
-    <t>carnegie_classification_2021_grad_program</t>
-  </si>
-  <si>
     <t>C21UGPRF</t>
   </si>
   <si>
     <t>Carnegie Classification 2021: Undergraduate Profile</t>
   </si>
   <si>
-    <t>carnegie_classification_2021_undergrad_profile</t>
-  </si>
-  <si>
     <t>C21ENPRF</t>
   </si>
   <si>
     <t>Carnegie Classification 2021: Enrollment Profile</t>
   </si>
   <si>
-    <t>carnegie_classification_2021_enrollment_profile</t>
-  </si>
-  <si>
     <t>C21SZSET</t>
   </si>
   <si>
@@ -598,9 +586,6 @@
     <t>Institution size category</t>
   </si>
   <si>
-    <t>institution_size_category</t>
-  </si>
-  <si>
     <t>F1SYSTYP</t>
   </si>
   <si>
@@ -727,7 +712,22 @@
     <t>custom_comparison_group</t>
   </si>
   <si>
-    <t>rpt_method_charges_grad_rates_retention_rates_fin_aid</t>
+    <t>rpt_charges_grad_retention_fin_aid</t>
+  </si>
+  <si>
+    <t>carnegie_classification_2021_ugrad_profile</t>
+  </si>
+  <si>
+    <t>carnegie_classification_2021_ugrad_pgm</t>
+  </si>
+  <si>
+    <t>carnegie_classification_2021_grad_pgm</t>
+  </si>
+  <si>
+    <t>carnegie_classification_2021_enrollment_prf</t>
+  </si>
+  <si>
+    <t>institution_size_cat</t>
   </si>
 </sst>
 </file>
@@ -1093,8 +1093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2213,7 +2213,7 @@
         <v>153</v>
       </c>
       <c r="H48" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
@@ -2282,7 +2282,7 @@
         <v>161</v>
       </c>
       <c r="H51" t="s">
-        <v>162</v>
+        <v>232</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
@@ -2290,22 +2290,22 @@
         <v>15517</v>
       </c>
       <c r="B52" t="s">
+        <v>162</v>
+      </c>
+      <c r="C52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52" t="s">
+        <v>29</v>
+      </c>
+      <c r="G52" t="s">
         <v>163</v>
       </c>
-      <c r="C52" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52">
-        <v>2</v>
-      </c>
-      <c r="E52" t="s">
-        <v>29</v>
-      </c>
-      <c r="G52" t="s">
-        <v>164</v>
-      </c>
       <c r="H52" t="s">
-        <v>165</v>
+        <v>233</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
@@ -2313,7 +2313,7 @@
         <v>15518</v>
       </c>
       <c r="B53" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C53" t="s">
         <v>9</v>
@@ -2325,10 +2325,10 @@
         <v>29</v>
       </c>
       <c r="G53" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H53" t="s">
-        <v>168</v>
+        <v>231</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
@@ -2336,7 +2336,7 @@
         <v>15519</v>
       </c>
       <c r="B54" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C54" t="s">
         <v>9</v>
@@ -2348,10 +2348,10 @@
         <v>29</v>
       </c>
       <c r="G54" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H54" t="s">
-        <v>171</v>
+        <v>234</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -2359,7 +2359,7 @@
         <v>15520</v>
       </c>
       <c r="B55" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C55" t="s">
         <v>9</v>
@@ -2371,10 +2371,10 @@
         <v>29</v>
       </c>
       <c r="G55" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H55" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
@@ -2382,7 +2382,7 @@
         <v>15615</v>
       </c>
       <c r="B56" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C56" t="s">
         <v>9</v>
@@ -2394,10 +2394,10 @@
         <v>29</v>
       </c>
       <c r="G56" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H56" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
@@ -2405,7 +2405,7 @@
         <v>15515</v>
       </c>
       <c r="B57" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C57" t="s">
         <v>9</v>
@@ -2417,10 +2417,10 @@
         <v>29</v>
       </c>
       <c r="G57" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H57" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
@@ -2428,7 +2428,7 @@
         <v>15215</v>
       </c>
       <c r="B58" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C58" t="s">
         <v>9</v>
@@ -2440,10 +2440,10 @@
         <v>29</v>
       </c>
       <c r="G58" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H58" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
@@ -2451,7 +2451,7 @@
         <v>10171</v>
       </c>
       <c r="B59" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C59" t="s">
         <v>9</v>
@@ -2463,10 +2463,10 @@
         <v>29</v>
       </c>
       <c r="G59" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H59" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -2474,7 +2474,7 @@
         <v>15225</v>
       </c>
       <c r="B60" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C60" t="s">
         <v>9</v>
@@ -2486,10 +2486,10 @@
         <v>29</v>
       </c>
       <c r="G60" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H60" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -2497,7 +2497,7 @@
         <v>23357</v>
       </c>
       <c r="B61" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C61" t="s">
         <v>9</v>
@@ -2509,10 +2509,10 @@
         <v>29</v>
       </c>
       <c r="G61" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H61" t="s">
-        <v>192</v>
+        <v>235</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -2520,7 +2520,7 @@
         <v>16066</v>
       </c>
       <c r="B62" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C62" t="s">
         <v>9</v>
@@ -2532,10 +2532,10 @@
         <v>29</v>
       </c>
       <c r="G62" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H62" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
@@ -2543,7 +2543,7 @@
         <v>16071</v>
       </c>
       <c r="B63" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C63" t="s">
         <v>15</v>
@@ -2555,10 +2555,10 @@
         <v>16</v>
       </c>
       <c r="G63" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H63" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -2566,7 +2566,7 @@
         <v>16070</v>
       </c>
       <c r="B64" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C64" t="s">
         <v>15</v>
@@ -2578,10 +2578,10 @@
         <v>29</v>
       </c>
       <c r="G64" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H64" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
@@ -2589,7 +2589,7 @@
         <v>16086</v>
       </c>
       <c r="B65" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C65" t="s">
         <v>9</v>
@@ -2601,10 +2601,10 @@
         <v>29</v>
       </c>
       <c r="G65" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H65" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
@@ -2612,7 +2612,7 @@
         <v>16091</v>
       </c>
       <c r="B66" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C66" t="s">
         <v>9</v>
@@ -2624,10 +2624,10 @@
         <v>29</v>
       </c>
       <c r="G66" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="H66" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
@@ -2635,7 +2635,7 @@
         <v>16096</v>
       </c>
       <c r="B67" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C67" t="s">
         <v>9</v>
@@ -2647,10 +2647,10 @@
         <v>29</v>
       </c>
       <c r="G67" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="H67" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
@@ -2658,7 +2658,7 @@
         <v>16099</v>
       </c>
       <c r="B68" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C68" t="s">
         <v>9</v>
@@ -2670,10 +2670,10 @@
         <v>29</v>
       </c>
       <c r="G68" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="H68" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
@@ -2681,7 +2681,7 @@
         <v>16116</v>
       </c>
       <c r="B69" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C69" t="s">
         <v>9</v>
@@ -2693,10 +2693,10 @@
         <v>29</v>
       </c>
       <c r="G69" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H69" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
@@ -2704,7 +2704,7 @@
         <v>16121</v>
       </c>
       <c r="B70" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C70" t="s">
         <v>15</v>
@@ -2716,10 +2716,10 @@
         <v>16</v>
       </c>
       <c r="G70" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="H70" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
@@ -2727,7 +2727,7 @@
         <v>16126</v>
       </c>
       <c r="B71" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C71" t="s">
         <v>9</v>
@@ -2739,10 +2739,10 @@
         <v>29</v>
       </c>
       <c r="G71" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H71" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
@@ -2750,7 +2750,7 @@
         <v>16106</v>
       </c>
       <c r="B72" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C72" t="s">
         <v>9</v>
@@ -2762,10 +2762,10 @@
         <v>10</v>
       </c>
       <c r="G72" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="H72" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
@@ -2773,7 +2773,7 @@
         <v>16111</v>
       </c>
       <c r="B73" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C73" t="s">
         <v>9</v>
@@ -2785,10 +2785,10 @@
         <v>10</v>
       </c>
       <c r="G73" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="H73" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
@@ -2796,7 +2796,7 @@
         <v>15230</v>
       </c>
       <c r="B74" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C74" t="s">
         <v>9</v>
@@ -2808,10 +2808,10 @@
         <v>29</v>
       </c>
       <c r="G74" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H74" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
@@ -2819,7 +2819,7 @@
         <v>16000</v>
       </c>
       <c r="B75" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C75" t="s">
         <v>9</v>
@@ -2831,10 +2831,10 @@
         <v>29</v>
       </c>
       <c r="G75" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="H75" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
